--- a/Code/Results/Cases/Case_4_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9979361849840687</v>
+        <v>1.038172232093932</v>
       </c>
       <c r="D2">
-        <v>1.015534156319029</v>
+        <v>1.039141639893988</v>
       </c>
       <c r="E2">
-        <v>1.013066756396948</v>
+        <v>1.0514363096429</v>
       </c>
       <c r="F2">
-        <v>1.014837464675092</v>
+        <v>1.058297005690545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041030183648721</v>
+        <v>1.032951788875909</v>
       </c>
       <c r="J2">
-        <v>1.020178800115704</v>
+        <v>1.043271113561038</v>
       </c>
       <c r="K2">
-        <v>1.026781235979368</v>
+        <v>1.041927670689597</v>
       </c>
       <c r="L2">
-        <v>1.024347003279395</v>
+        <v>1.054187816701905</v>
       </c>
       <c r="M2">
-        <v>1.026093888852944</v>
+        <v>1.061029625515856</v>
       </c>
       <c r="N2">
-        <v>1.02162757102801</v>
+        <v>1.044752678207164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003651340293059</v>
+        <v>1.039356689080995</v>
       </c>
       <c r="D3">
-        <v>1.019697618861624</v>
+        <v>1.040012921798461</v>
       </c>
       <c r="E3">
-        <v>1.018592223784705</v>
+        <v>1.05264503947401</v>
       </c>
       <c r="F3">
-        <v>1.020955733216061</v>
+        <v>1.059650120503179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042321272631902</v>
+        <v>1.033144031776881</v>
       </c>
       <c r="J3">
-        <v>1.024042958603005</v>
+        <v>1.044099074951224</v>
       </c>
       <c r="K3">
-        <v>1.030084518933554</v>
+        <v>1.042608949108766</v>
       </c>
       <c r="L3">
-        <v>1.028992614533733</v>
+        <v>1.055208173996032</v>
       </c>
       <c r="M3">
-        <v>1.031327322930304</v>
+        <v>1.062195378954268</v>
       </c>
       <c r="N3">
-        <v>1.02549721706359</v>
+        <v>1.045581815397493</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007259066949688</v>
+        <v>1.040122886448336</v>
       </c>
       <c r="D4">
-        <v>1.022327265530538</v>
+        <v>1.040576192680133</v>
       </c>
       <c r="E4">
-        <v>1.02208597890287</v>
+        <v>1.053427350078393</v>
       </c>
       <c r="F4">
-        <v>1.024825305303244</v>
+        <v>1.060526125145609</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043124217809868</v>
+        <v>1.033266847303909</v>
       </c>
       <c r="J4">
-        <v>1.026478890296499</v>
+        <v>1.044634082152327</v>
       </c>
       <c r="K4">
-        <v>1.032163486117285</v>
+        <v>1.04304863947593</v>
       </c>
       <c r="L4">
-        <v>1.031924957505623</v>
+        <v>1.055868027236708</v>
       </c>
       <c r="M4">
-        <v>1.034633066275049</v>
+        <v>1.062949608084786</v>
       </c>
       <c r="N4">
-        <v>1.027936608059494</v>
+        <v>1.046117582370187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008755092338967</v>
+        <v>1.040444943716996</v>
       </c>
       <c r="D5">
-        <v>1.023417965607062</v>
+        <v>1.040812870924597</v>
       </c>
       <c r="E5">
-        <v>1.023536092231993</v>
+        <v>1.053756278501493</v>
       </c>
       <c r="F5">
-        <v>1.026431666968251</v>
+        <v>1.060894506991295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04345422956999</v>
+        <v>1.033318101171732</v>
       </c>
       <c r="J5">
-        <v>1.027488158265729</v>
+        <v>1.044858823255202</v>
       </c>
       <c r="K5">
-        <v>1.033024012136474</v>
+        <v>1.043233212437441</v>
       </c>
       <c r="L5">
-        <v>1.033140826231371</v>
+        <v>1.05614533846819</v>
       </c>
       <c r="M5">
-        <v>1.036004343730878</v>
+        <v>1.063266665853721</v>
       </c>
       <c r="N5">
-        <v>1.028947309305005</v>
+        <v>1.046342642631207</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009005096931178</v>
+        <v>1.040499015548782</v>
       </c>
       <c r="D6">
-        <v>1.023600247958741</v>
+        <v>1.040852603171598</v>
       </c>
       <c r="E6">
-        <v>1.023778502652584</v>
+        <v>1.053811509718306</v>
       </c>
       <c r="F6">
-        <v>1.026700213004619</v>
+        <v>1.06095636640398</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043509203836675</v>
+        <v>1.03332668477173</v>
       </c>
       <c r="J6">
-        <v>1.027656768585826</v>
+        <v>1.044896547989099</v>
       </c>
       <c r="K6">
-        <v>1.033167722973227</v>
+        <v>1.043264187066235</v>
       </c>
       <c r="L6">
-        <v>1.033344006533841</v>
+        <v>1.056191894943716</v>
       </c>
       <c r="M6">
-        <v>1.036233528566751</v>
+        <v>1.063319900115568</v>
       </c>
       <c r="N6">
-        <v>1.029116159071097</v>
+        <v>1.046380420938553</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007279136868453</v>
+        <v>1.040127189995709</v>
       </c>
       <c r="D7">
-        <v>1.022341896903248</v>
+        <v>1.040579355660623</v>
       </c>
       <c r="E7">
-        <v>1.022105427601486</v>
+        <v>1.053431745057122</v>
       </c>
       <c r="F7">
-        <v>1.024846848512094</v>
+        <v>1.060531047049088</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043128656803594</v>
+        <v>1.03326753364488</v>
       </c>
       <c r="J7">
-        <v>1.026492433526891</v>
+        <v>1.044637085843921</v>
       </c>
       <c r="K7">
-        <v>1.032175036768803</v>
+        <v>1.043051106820323</v>
       </c>
       <c r="L7">
-        <v>1.031941269404517</v>
+        <v>1.055871733039092</v>
       </c>
       <c r="M7">
-        <v>1.034651460792978</v>
+        <v>1.062953844703302</v>
       </c>
       <c r="N7">
-        <v>1.027950170522827</v>
+        <v>1.046120590327368</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998869626028546</v>
+        <v>1.038572572703999</v>
       </c>
       <c r="D8">
-        <v>1.016954931846392</v>
+        <v>1.039436198918873</v>
       </c>
       <c r="E8">
-        <v>1.01495155110971</v>
+        <v>1.05184476890024</v>
       </c>
       <c r="F8">
-        <v>1.016924278161961</v>
+        <v>1.058754205456681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041473379846835</v>
+        <v>1.033017085168613</v>
       </c>
       <c r="J8">
-        <v>1.021498444342826</v>
+        <v>1.043551080667344</v>
       </c>
       <c r="K8">
-        <v>1.027910032937563</v>
+        <v>1.042158148813518</v>
       </c>
       <c r="L8">
-        <v>1.025932732334002</v>
+        <v>1.054532732012383</v>
       </c>
       <c r="M8">
-        <v>1.027879777335555</v>
+        <v>1.061423617274937</v>
       </c>
       <c r="N8">
-        <v>1.022949089301302</v>
+        <v>1.045033042898874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9861218455956474</v>
+        <v>1.03583132675566</v>
       </c>
       <c r="D9">
-        <v>1.006939591445331</v>
+        <v>1.037417906858443</v>
       </c>
       <c r="E9">
-        <v>1.001678319376945</v>
+        <v>1.04904963392638</v>
       </c>
       <c r="F9">
-        <v>1.002231486353866</v>
+        <v>1.055626530191347</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038296753153324</v>
+        <v>1.032563668283893</v>
       </c>
       <c r="J9">
-        <v>1.012174378783593</v>
+        <v>1.04163169266788</v>
       </c>
       <c r="K9">
-        <v>1.019921073118448</v>
+        <v>1.040575866168762</v>
       </c>
       <c r="L9">
-        <v>1.014744225581503</v>
+        <v>1.052170221617907</v>
       </c>
       <c r="M9">
-        <v>1.015288462701565</v>
+        <v>1.058726385429146</v>
       </c>
       <c r="N9">
-        <v>1.013611782499489</v>
+        <v>1.043110929148293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763761787234168</v>
+        <v>1.034002490896422</v>
       </c>
       <c r="D10">
-        <v>0.9998660433218773</v>
+        <v>1.036069719582959</v>
       </c>
       <c r="E10">
-        <v>0.9923164273251752</v>
+        <v>1.047186996294168</v>
       </c>
       <c r="F10">
-        <v>0.9918709768083294</v>
+        <v>1.053543533484919</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035987385857353</v>
+        <v>1.032253249778373</v>
       </c>
       <c r="J10">
-        <v>1.005559481677919</v>
+        <v>1.040348195080922</v>
       </c>
       <c r="K10">
-        <v>1.014237716819192</v>
+        <v>1.039515069075992</v>
       </c>
       <c r="L10">
-        <v>1.006825810820603</v>
+        <v>1.050593095502187</v>
       </c>
       <c r="M10">
-        <v>1.006388570973133</v>
+        <v>1.056927600227164</v>
       </c>
       <c r="N10">
-        <v>1.006987491481186</v>
+        <v>1.041825608847543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9720031741646226</v>
+        <v>1.033210239751654</v>
       </c>
       <c r="D11">
-        <v>0.9966977485917436</v>
+        <v>1.035485300259209</v>
       </c>
       <c r="E11">
-        <v>0.9881247602243717</v>
+        <v>1.046380616574343</v>
       </c>
       <c r="F11">
-        <v>0.9872323465391987</v>
+        <v>1.052642046114181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034937709044277</v>
+        <v>1.032116901914395</v>
       </c>
       <c r="J11">
-        <v>1.002588885490789</v>
+        <v>1.039791484316384</v>
       </c>
       <c r="K11">
-        <v>1.011682210395393</v>
+        <v>1.039054312941501</v>
       </c>
       <c r="L11">
-        <v>1.003274155587651</v>
+        <v>1.049909659283859</v>
       </c>
       <c r="M11">
-        <v>1.002399126739662</v>
+        <v>1.056148531762935</v>
       </c>
       <c r="N11">
-        <v>1.004012676706738</v>
+        <v>1.041268107489864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.970354129872367</v>
+        <v>1.032915906876779</v>
       </c>
       <c r="D12">
-        <v>0.9955039985238155</v>
+        <v>1.035268123094971</v>
       </c>
       <c r="E12">
-        <v>0.9865455350273888</v>
+        <v>1.046081112365282</v>
       </c>
       <c r="F12">
-        <v>0.9854847059301527</v>
+        <v>1.052307260620145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034539941676664</v>
+        <v>1.032065965324646</v>
       </c>
       <c r="J12">
-        <v>1.001468395586705</v>
+        <v>1.039584553296389</v>
       </c>
       <c r="K12">
-        <v>1.01071784472728</v>
+        <v>1.038882952705238</v>
       </c>
       <c r="L12">
-        <v>1.001935122018859</v>
+        <v>1.049655719119038</v>
       </c>
       <c r="M12">
-        <v>1.000895381687393</v>
+        <v>1.055859121361717</v>
       </c>
       <c r="N12">
-        <v>1.002890595578468</v>
+        <v>1.041060882604085</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9707090033792419</v>
+        <v>1.032979044829883</v>
       </c>
       <c r="D13">
-        <v>0.9957608452033792</v>
+        <v>1.035314712773613</v>
       </c>
       <c r="E13">
-        <v>0.9868853174864086</v>
+        <v>1.046145356112973</v>
       </c>
       <c r="F13">
-        <v>0.9858607259287008</v>
+        <v>1.052379070253333</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034625627187859</v>
+        <v>1.032076904565256</v>
       </c>
       <c r="J13">
-        <v>1.001709536265111</v>
+        <v>1.03962894723572</v>
       </c>
       <c r="K13">
-        <v>1.0109254052899</v>
+        <v>1.03891971979734</v>
       </c>
       <c r="L13">
-        <v>1.002223267473382</v>
+        <v>1.049710193865546</v>
       </c>
       <c r="M13">
-        <v>1.001218956195214</v>
+        <v>1.055921202254761</v>
       </c>
       <c r="N13">
-        <v>1.003132078704297</v>
+        <v>1.041105339587902</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9718673783870406</v>
+        <v>1.033185911251382</v>
       </c>
       <c r="D14">
-        <v>0.9965994242244492</v>
+        <v>1.035467350327232</v>
       </c>
       <c r="E14">
-        <v>0.9879946843438681</v>
+        <v>1.04635585904434</v>
       </c>
       <c r="F14">
-        <v>0.9870883994846836</v>
+        <v>1.052614371288266</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034904992496687</v>
+        <v>1.032112697416291</v>
       </c>
       <c r="J14">
-        <v>1.002496620622839</v>
+        <v>1.039774382276727</v>
       </c>
       <c r="K14">
-        <v>1.011602810097761</v>
+        <v>1.0390401526402</v>
       </c>
       <c r="L14">
-        <v>1.003163882480141</v>
+        <v>1.049888670184485</v>
       </c>
       <c r="M14">
-        <v>1.0022752823772</v>
+        <v>1.056124609627509</v>
       </c>
       <c r="N14">
-        <v>1.003920280812093</v>
+        <v>1.041250981163348</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9725777620913915</v>
+        <v>1.033313361049629</v>
       </c>
       <c r="D15">
-        <v>0.9971138267533568</v>
+        <v>1.035561382375828</v>
       </c>
       <c r="E15">
-        <v>0.9886752046589007</v>
+        <v>1.046485559583478</v>
       </c>
       <c r="F15">
-        <v>0.987841488765816</v>
+        <v>1.052759356827786</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035076063034776</v>
+        <v>1.032134712015002</v>
       </c>
       <c r="J15">
-        <v>1.00297927129492</v>
+        <v>1.039863970499799</v>
       </c>
       <c r="K15">
-        <v>1.012018146516851</v>
+        <v>1.039114326785464</v>
       </c>
       <c r="L15">
-        <v>1.003740762255664</v>
+        <v>1.049998624476484</v>
       </c>
       <c r="M15">
-        <v>1.002923172243118</v>
+        <v>1.056249931622064</v>
       </c>
       <c r="N15">
-        <v>1.004403616903489</v>
+        <v>1.041340696611973</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766630327560089</v>
+        <v>1.034055062344711</v>
       </c>
       <c r="D16">
-        <v>1.000074002951556</v>
+        <v>1.036108491899721</v>
       </c>
       <c r="E16">
-        <v>0.9925915812961095</v>
+        <v>1.04724051613878</v>
       </c>
       <c r="F16">
-        <v>0.9921754704380866</v>
+        <v>1.053603371781657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03605596868403</v>
+        <v>1.032262257954203</v>
       </c>
       <c r="J16">
-        <v>1.005754298572427</v>
+        <v>1.040385122047153</v>
       </c>
       <c r="K16">
-        <v>1.014405247564296</v>
+        <v>1.039545617859992</v>
       </c>
       <c r="L16">
-        <v>1.007058822541863</v>
+        <v>1.05063844158322</v>
       </c>
       <c r="M16">
-        <v>1.006650353132595</v>
+        <v>1.056979300396066</v>
       </c>
       <c r="N16">
-        <v>1.00718258503803</v>
+        <v>1.041862588254302</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9791834729345473</v>
+        <v>1.034520215682433</v>
       </c>
       <c r="D17">
-        <v>1.001901900616065</v>
+        <v>1.03645150587532</v>
       </c>
       <c r="E17">
-        <v>0.9950102616329378</v>
+        <v>1.047714120357835</v>
       </c>
       <c r="F17">
-        <v>0.9948520672535704</v>
+        <v>1.054132922407228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036657057370744</v>
+        <v>1.03234174601395</v>
       </c>
       <c r="J17">
-        <v>1.007465790680741</v>
+        <v>1.040711771856554</v>
       </c>
       <c r="K17">
-        <v>1.015876664601437</v>
+        <v>1.039815773441091</v>
       </c>
       <c r="L17">
-        <v>1.009106348351124</v>
+        <v>1.05103963868386</v>
       </c>
       <c r="M17">
-        <v>1.008950964488601</v>
+        <v>1.057436763682286</v>
       </c>
       <c r="N17">
-        <v>1.008896507661449</v>
+        <v>1.042189701943899</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9806389590406301</v>
+        <v>1.034791497848945</v>
       </c>
       <c r="D18">
-        <v>1.002957989995501</v>
+        <v>1.036651517917408</v>
       </c>
       <c r="E18">
-        <v>0.9964078421970383</v>
+        <v>1.047990380753475</v>
       </c>
       <c r="F18">
-        <v>0.9963986968168442</v>
+        <v>1.054441845272674</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037002895549847</v>
+        <v>1.032387923412092</v>
       </c>
       <c r="J18">
-        <v>1.00845389869791</v>
+        <v>1.040902209810492</v>
       </c>
       <c r="K18">
-        <v>1.016725859275668</v>
+        <v>1.039973213291894</v>
       </c>
       <c r="L18">
-        <v>1.010288870387665</v>
+        <v>1.051273599135533</v>
       </c>
       <c r="M18">
-        <v>1.010279884347689</v>
+        <v>1.057703576812635</v>
       </c>
       <c r="N18">
-        <v>1.00988601890534</v>
+        <v>1.042380410341575</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9811328078131401</v>
+        <v>1.034883992380289</v>
       </c>
       <c r="D19">
-        <v>1.003316408174536</v>
+        <v>1.036719706328866</v>
       </c>
       <c r="E19">
-        <v>0.9968821872166664</v>
+        <v>1.048084581028237</v>
       </c>
       <c r="F19">
-        <v>0.9969236339712765</v>
+        <v>1.054547187689461</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03712002053796</v>
+        <v>1.032403637061712</v>
       </c>
       <c r="J19">
-        <v>1.00878912382591</v>
+        <v>1.040967128779765</v>
       </c>
       <c r="K19">
-        <v>1.01701390307419</v>
+        <v>1.040026872947418</v>
       </c>
       <c r="L19">
-        <v>1.010690122368224</v>
+        <v>1.051353365003932</v>
       </c>
       <c r="M19">
-        <v>1.010730851807525</v>
+        <v>1.057794550300234</v>
       </c>
       <c r="N19">
-        <v>1.010221720091472</v>
+        <v>1.04244542150323</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9789145801436618</v>
+        <v>1.034470312657507</v>
       </c>
       <c r="D20">
-        <v>1.001706835804846</v>
+        <v>1.036414710163289</v>
       </c>
       <c r="E20">
-        <v>0.9947521355381578</v>
+        <v>1.047663305565208</v>
       </c>
       <c r="F20">
-        <v>0.994566414290295</v>
+        <v>1.054076102008296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036593062073724</v>
+        <v>1.032333237004964</v>
       </c>
       <c r="J20">
-        <v>1.00728322402993</v>
+        <v>1.040676734883863</v>
       </c>
       <c r="K20">
-        <v>1.015719738812969</v>
+        <v>1.039786802516184</v>
       </c>
       <c r="L20">
-        <v>1.008887894279738</v>
+        <v>1.05099659932458</v>
       </c>
       <c r="M20">
-        <v>1.008705484402146</v>
+        <v>1.057387684024959</v>
       </c>
       <c r="N20">
-        <v>1.008713681745053</v>
+        <v>1.042154615214688</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9715269627544885</v>
+        <v>1.033124995798867</v>
       </c>
       <c r="D21">
-        <v>0.9963529593422078</v>
+        <v>1.035422405078887</v>
       </c>
       <c r="E21">
-        <v>0.9876686308322942</v>
+        <v>1.046293870611613</v>
       </c>
       <c r="F21">
-        <v>0.986727575436934</v>
+        <v>1.052545079168485</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034822947076361</v>
+        <v>1.03210216534683</v>
       </c>
       <c r="J21">
-        <v>1.002265324774984</v>
+        <v>1.039731559264803</v>
       </c>
       <c r="K21">
-        <v>1.011403757016971</v>
+        <v>1.039004694109469</v>
       </c>
       <c r="L21">
-        <v>1.002887452387631</v>
+        <v>1.049836115622424</v>
       </c>
       <c r="M21">
-        <v>1.001964837601873</v>
+        <v>1.056064712063612</v>
       </c>
       <c r="N21">
-        <v>1.003688656497604</v>
+        <v>1.041208097337836</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9667380970612898</v>
+        <v>1.032278819219059</v>
       </c>
       <c r="D22">
-        <v>0.9928883551967191</v>
+        <v>1.034797937184593</v>
       </c>
       <c r="E22">
-        <v>0.9830853260432031</v>
+        <v>1.045432973663008</v>
       </c>
       <c r="F22">
-        <v>0.9816553958793328</v>
+        <v>1.051582850981502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033664239422834</v>
+        <v>1.031955198102879</v>
       </c>
       <c r="J22">
-        <v>0.9990109332049104</v>
+        <v>1.039136456818317</v>
       </c>
       <c r="K22">
-        <v>1.008602023981821</v>
+        <v>1.038511707732643</v>
       </c>
       <c r="L22">
-        <v>0.9989994816932802</v>
+        <v>1.049106000862192</v>
       </c>
       <c r="M22">
-        <v>0.9975992379594545</v>
+        <v>1.055232734212015</v>
       </c>
       <c r="N22">
-        <v>1.000429643318217</v>
+        <v>1.040612149777617</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.969291032599349</v>
+        <v>1.032727424827148</v>
       </c>
       <c r="D23">
-        <v>0.9947347197771962</v>
+        <v>1.035129033396213</v>
       </c>
       <c r="E23">
-        <v>0.9855278621110062</v>
+        <v>1.04588934064752</v>
       </c>
       <c r="F23">
-        <v>0.9843584923968468</v>
+        <v>1.052092910587068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034282975359409</v>
+        <v>1.032033267869812</v>
       </c>
       <c r="J23">
-        <v>1.000745972209372</v>
+        <v>1.039452011332285</v>
       </c>
       <c r="K23">
-        <v>1.01009596080597</v>
+        <v>1.038773167354795</v>
       </c>
       <c r="L23">
-        <v>1.001071969365577</v>
+        <v>1.049493093932578</v>
       </c>
       <c r="M23">
-        <v>0.999926147992431</v>
+        <v>1.055673798552627</v>
       </c>
       <c r="N23">
-        <v>1.002167146277077</v>
+        <v>1.040928152415189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.979036126348775</v>
+        <v>1.034492861791193</v>
       </c>
       <c r="D24">
-        <v>1.001795008306381</v>
+        <v>1.036431336754037</v>
       </c>
       <c r="E24">
-        <v>0.9948688122719781</v>
+        <v>1.047686266536193</v>
       </c>
       <c r="F24">
-        <v>0.9946955335092093</v>
+        <v>1.054101776561913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036621993494452</v>
+        <v>1.0323370824366</v>
       </c>
       <c r="J24">
-        <v>1.007365749407182</v>
+        <v>1.040692566865987</v>
       </c>
       <c r="K24">
-        <v>1.015790674745382</v>
+        <v>1.039799893654511</v>
       </c>
       <c r="L24">
-        <v>1.008986640531499</v>
+        <v>1.051016047116144</v>
       </c>
       <c r="M24">
-        <v>1.008816446312461</v>
+        <v>1.057409861063485</v>
       </c>
       <c r="N24">
-        <v>1.008796324317807</v>
+        <v>1.042170469680043</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9897750745264604</v>
+        <v>1.036540231621706</v>
       </c>
       <c r="D25">
-        <v>1.009595167542085</v>
+        <v>1.037940149884478</v>
       </c>
       <c r="E25">
-        <v>1.005195132530802</v>
+        <v>1.04977209736391</v>
       </c>
       <c r="F25">
-        <v>1.006123825005681</v>
+        <v>1.056434725986676</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039150430338927</v>
+        <v>1.032682321595814</v>
       </c>
       <c r="J25">
-        <v>1.014651516972556</v>
+        <v>1.042128583874373</v>
       </c>
       <c r="K25">
-        <v>1.022046334816678</v>
+        <v>1.040985968440215</v>
       </c>
       <c r="L25">
-        <v>1.017713332542418</v>
+        <v>1.0527813541608</v>
       </c>
       <c r="M25">
-        <v>1.018627814508381</v>
+        <v>1.05942378764956</v>
       </c>
       <c r="N25">
-        <v>1.016092438508813</v>
+        <v>1.043608525997294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038172232093932</v>
+        <v>0.997936184984069</v>
       </c>
       <c r="D2">
-        <v>1.039141639893988</v>
+        <v>1.01553415631903</v>
       </c>
       <c r="E2">
-        <v>1.0514363096429</v>
+        <v>1.013066756396948</v>
       </c>
       <c r="F2">
-        <v>1.058297005690545</v>
+        <v>1.014837464675092</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032951788875909</v>
+        <v>1.041030183648721</v>
       </c>
       <c r="J2">
-        <v>1.043271113561038</v>
+        <v>1.020178800115705</v>
       </c>
       <c r="K2">
-        <v>1.041927670689597</v>
+        <v>1.026781235979369</v>
       </c>
       <c r="L2">
-        <v>1.054187816701905</v>
+        <v>1.024347003279396</v>
       </c>
       <c r="M2">
-        <v>1.061029625515856</v>
+        <v>1.026093888852945</v>
       </c>
       <c r="N2">
-        <v>1.044752678207164</v>
+        <v>1.021627571028011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039356689080995</v>
+        <v>1.003651340293059</v>
       </c>
       <c r="D3">
-        <v>1.040012921798461</v>
+        <v>1.019697618861624</v>
       </c>
       <c r="E3">
-        <v>1.05264503947401</v>
+        <v>1.018592223784706</v>
       </c>
       <c r="F3">
-        <v>1.059650120503179</v>
+        <v>1.020955733216061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033144031776881</v>
+        <v>1.042321272631902</v>
       </c>
       <c r="J3">
-        <v>1.044099074951224</v>
+        <v>1.024042958603005</v>
       </c>
       <c r="K3">
-        <v>1.042608949108766</v>
+        <v>1.030084518933554</v>
       </c>
       <c r="L3">
-        <v>1.055208173996032</v>
+        <v>1.028992614533734</v>
       </c>
       <c r="M3">
-        <v>1.062195378954268</v>
+        <v>1.031327322930305</v>
       </c>
       <c r="N3">
-        <v>1.045581815397493</v>
+        <v>1.02549721706359</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040122886448336</v>
+        <v>1.007259066949688</v>
       </c>
       <c r="D4">
-        <v>1.040576192680133</v>
+        <v>1.022327265530538</v>
       </c>
       <c r="E4">
-        <v>1.053427350078393</v>
+        <v>1.02208597890287</v>
       </c>
       <c r="F4">
-        <v>1.060526125145609</v>
+        <v>1.024825305303244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033266847303909</v>
+        <v>1.043124217809868</v>
       </c>
       <c r="J4">
-        <v>1.044634082152327</v>
+        <v>1.026478890296498</v>
       </c>
       <c r="K4">
-        <v>1.04304863947593</v>
+        <v>1.032163486117285</v>
       </c>
       <c r="L4">
-        <v>1.055868027236708</v>
+        <v>1.031924957505623</v>
       </c>
       <c r="M4">
-        <v>1.062949608084786</v>
+        <v>1.034633066275048</v>
       </c>
       <c r="N4">
-        <v>1.046117582370187</v>
+        <v>1.027936608059494</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040444943716996</v>
+        <v>1.008755092338968</v>
       </c>
       <c r="D5">
-        <v>1.040812870924597</v>
+        <v>1.023417965607063</v>
       </c>
       <c r="E5">
-        <v>1.053756278501493</v>
+        <v>1.023536092231994</v>
       </c>
       <c r="F5">
-        <v>1.060894506991295</v>
+        <v>1.026431666968251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033318101171732</v>
+        <v>1.04345422956999</v>
       </c>
       <c r="J5">
-        <v>1.044858823255202</v>
+        <v>1.027488158265729</v>
       </c>
       <c r="K5">
-        <v>1.043233212437441</v>
+        <v>1.033024012136474</v>
       </c>
       <c r="L5">
-        <v>1.05614533846819</v>
+        <v>1.033140826231372</v>
       </c>
       <c r="M5">
-        <v>1.063266665853721</v>
+        <v>1.036004343730879</v>
       </c>
       <c r="N5">
-        <v>1.046342642631207</v>
+        <v>1.028947309305006</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040499015548782</v>
+        <v>1.009005096931179</v>
       </c>
       <c r="D6">
-        <v>1.040852603171598</v>
+        <v>1.023600247958742</v>
       </c>
       <c r="E6">
-        <v>1.053811509718306</v>
+        <v>1.023778502652585</v>
       </c>
       <c r="F6">
-        <v>1.06095636640398</v>
+        <v>1.026700213004621</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03332668477173</v>
+        <v>1.043509203836676</v>
       </c>
       <c r="J6">
-        <v>1.044896547989099</v>
+        <v>1.027656768585828</v>
       </c>
       <c r="K6">
-        <v>1.043264187066235</v>
+        <v>1.033167722973228</v>
       </c>
       <c r="L6">
-        <v>1.056191894943716</v>
+        <v>1.033344006533842</v>
       </c>
       <c r="M6">
-        <v>1.063319900115568</v>
+        <v>1.036233528566753</v>
       </c>
       <c r="N6">
-        <v>1.046380420938553</v>
+        <v>1.029116159071098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040127189995709</v>
+        <v>1.007279136868454</v>
       </c>
       <c r="D7">
-        <v>1.040579355660623</v>
+        <v>1.022341896903249</v>
       </c>
       <c r="E7">
-        <v>1.053431745057122</v>
+        <v>1.022105427601487</v>
       </c>
       <c r="F7">
-        <v>1.060531047049088</v>
+        <v>1.024846848512095</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03326753364488</v>
+        <v>1.043128656803595</v>
       </c>
       <c r="J7">
-        <v>1.044637085843921</v>
+        <v>1.026492433526891</v>
       </c>
       <c r="K7">
-        <v>1.043051106820323</v>
+        <v>1.032175036768803</v>
       </c>
       <c r="L7">
-        <v>1.055871733039092</v>
+        <v>1.031941269404518</v>
       </c>
       <c r="M7">
-        <v>1.062953844703302</v>
+        <v>1.034651460792978</v>
       </c>
       <c r="N7">
-        <v>1.046120590327368</v>
+        <v>1.027950170522827</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038572572703999</v>
+        <v>0.9998869626028543</v>
       </c>
       <c r="D8">
-        <v>1.039436198918873</v>
+        <v>1.016954931846392</v>
       </c>
       <c r="E8">
-        <v>1.05184476890024</v>
+        <v>1.014951551109711</v>
       </c>
       <c r="F8">
-        <v>1.058754205456681</v>
+        <v>1.016924278161961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033017085168613</v>
+        <v>1.041473379846835</v>
       </c>
       <c r="J8">
-        <v>1.043551080667344</v>
+        <v>1.021498444342826</v>
       </c>
       <c r="K8">
-        <v>1.042158148813518</v>
+        <v>1.027910032937563</v>
       </c>
       <c r="L8">
-        <v>1.054532732012383</v>
+        <v>1.025932732334002</v>
       </c>
       <c r="M8">
-        <v>1.061423617274937</v>
+        <v>1.027879777335555</v>
       </c>
       <c r="N8">
-        <v>1.045033042898874</v>
+        <v>1.022949089301302</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03583132675566</v>
+        <v>0.986121845595646</v>
       </c>
       <c r="D9">
-        <v>1.037417906858443</v>
+        <v>1.00693959144533</v>
       </c>
       <c r="E9">
-        <v>1.04904963392638</v>
+        <v>1.001678319376943</v>
       </c>
       <c r="F9">
-        <v>1.055626530191347</v>
+        <v>1.002231486353864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032563668283893</v>
+        <v>1.038296753153323</v>
       </c>
       <c r="J9">
-        <v>1.04163169266788</v>
+        <v>1.012174378783591</v>
       </c>
       <c r="K9">
-        <v>1.040575866168762</v>
+        <v>1.019921073118447</v>
       </c>
       <c r="L9">
-        <v>1.052170221617907</v>
+        <v>1.014744225581502</v>
       </c>
       <c r="M9">
-        <v>1.058726385429146</v>
+        <v>1.015288462701562</v>
       </c>
       <c r="N9">
-        <v>1.043110929148293</v>
+        <v>1.013611782499488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034002490896422</v>
+        <v>0.976376178723417</v>
       </c>
       <c r="D10">
-        <v>1.036069719582959</v>
+        <v>0.9998660433218777</v>
       </c>
       <c r="E10">
-        <v>1.047186996294168</v>
+        <v>0.9923164273251757</v>
       </c>
       <c r="F10">
-        <v>1.053543533484919</v>
+        <v>0.9918709768083299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032253249778373</v>
+        <v>1.035987385857353</v>
       </c>
       <c r="J10">
-        <v>1.040348195080922</v>
+        <v>1.00555948167792</v>
       </c>
       <c r="K10">
-        <v>1.039515069075992</v>
+        <v>1.014237716819192</v>
       </c>
       <c r="L10">
-        <v>1.050593095502187</v>
+        <v>1.006825810820603</v>
       </c>
       <c r="M10">
-        <v>1.056927600227164</v>
+        <v>1.006388570973133</v>
       </c>
       <c r="N10">
-        <v>1.041825608847543</v>
+        <v>1.006987491481187</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033210239751654</v>
+        <v>0.9720031741646227</v>
       </c>
       <c r="D11">
-        <v>1.035485300259209</v>
+        <v>0.9966977485917435</v>
       </c>
       <c r="E11">
-        <v>1.046380616574343</v>
+        <v>0.9881247602243717</v>
       </c>
       <c r="F11">
-        <v>1.052642046114181</v>
+        <v>0.9872323465391984</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032116901914395</v>
+        <v>1.034937709044277</v>
       </c>
       <c r="J11">
-        <v>1.039791484316384</v>
+        <v>1.002588885490789</v>
       </c>
       <c r="K11">
-        <v>1.039054312941501</v>
+        <v>1.011682210395393</v>
       </c>
       <c r="L11">
-        <v>1.049909659283859</v>
+        <v>1.003274155587651</v>
       </c>
       <c r="M11">
-        <v>1.056148531762935</v>
+        <v>1.002399126739662</v>
       </c>
       <c r="N11">
-        <v>1.041268107489864</v>
+        <v>1.004012676706738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032915906876779</v>
+        <v>0.9703541298723666</v>
       </c>
       <c r="D12">
-        <v>1.035268123094971</v>
+        <v>0.9955039985238145</v>
       </c>
       <c r="E12">
-        <v>1.046081112365282</v>
+        <v>0.9865455350273883</v>
       </c>
       <c r="F12">
-        <v>1.052307260620145</v>
+        <v>0.985484705930152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032065965324646</v>
+        <v>1.034539941676663</v>
       </c>
       <c r="J12">
-        <v>1.039584553296389</v>
+        <v>1.001468395586704</v>
       </c>
       <c r="K12">
-        <v>1.038882952705238</v>
+        <v>1.010717844727279</v>
       </c>
       <c r="L12">
-        <v>1.049655719119038</v>
+        <v>1.001935122018858</v>
       </c>
       <c r="M12">
-        <v>1.055859121361717</v>
+        <v>1.000895381687392</v>
       </c>
       <c r="N12">
-        <v>1.041060882604085</v>
+        <v>1.002890595578467</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032979044829883</v>
+        <v>0.9707090033792424</v>
       </c>
       <c r="D13">
-        <v>1.035314712773613</v>
+        <v>0.9957608452033794</v>
       </c>
       <c r="E13">
-        <v>1.046145356112973</v>
+        <v>0.986885317486409</v>
       </c>
       <c r="F13">
-        <v>1.052379070253333</v>
+        <v>0.9858607259287013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032076904565256</v>
+        <v>1.034625627187859</v>
       </c>
       <c r="J13">
-        <v>1.03962894723572</v>
+        <v>1.001709536265111</v>
       </c>
       <c r="K13">
-        <v>1.03891971979734</v>
+        <v>1.0109254052899</v>
       </c>
       <c r="L13">
-        <v>1.049710193865546</v>
+        <v>1.002223267473382</v>
       </c>
       <c r="M13">
-        <v>1.055921202254761</v>
+        <v>1.001218956195214</v>
       </c>
       <c r="N13">
-        <v>1.041105339587902</v>
+        <v>1.003132078704297</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033185911251382</v>
+        <v>0.9718673783870407</v>
       </c>
       <c r="D14">
-        <v>1.035467350327232</v>
+        <v>0.996599424224449</v>
       </c>
       <c r="E14">
-        <v>1.04635585904434</v>
+        <v>0.9879946843438682</v>
       </c>
       <c r="F14">
-        <v>1.052614371288266</v>
+        <v>0.9870883994846837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032112697416291</v>
+        <v>1.034904992496687</v>
       </c>
       <c r="J14">
-        <v>1.039774382276727</v>
+        <v>1.002496620622839</v>
       </c>
       <c r="K14">
-        <v>1.0390401526402</v>
+        <v>1.011602810097761</v>
       </c>
       <c r="L14">
-        <v>1.049888670184485</v>
+        <v>1.003163882480141</v>
       </c>
       <c r="M14">
-        <v>1.056124609627509</v>
+        <v>1.0022752823772</v>
       </c>
       <c r="N14">
-        <v>1.041250981163348</v>
+        <v>1.003920280812093</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033313361049629</v>
+        <v>0.9725777620913921</v>
       </c>
       <c r="D15">
-        <v>1.035561382375828</v>
+        <v>0.9971138267533572</v>
       </c>
       <c r="E15">
-        <v>1.046485559583478</v>
+        <v>0.9886752046589017</v>
       </c>
       <c r="F15">
-        <v>1.052759356827786</v>
+        <v>0.9878414887658167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032134712015002</v>
+        <v>1.035076063034776</v>
       </c>
       <c r="J15">
-        <v>1.039863970499799</v>
+        <v>1.002979271294921</v>
       </c>
       <c r="K15">
-        <v>1.039114326785464</v>
+        <v>1.012018146516851</v>
       </c>
       <c r="L15">
-        <v>1.049998624476484</v>
+        <v>1.003740762255665</v>
       </c>
       <c r="M15">
-        <v>1.056249931622064</v>
+        <v>1.002923172243118</v>
       </c>
       <c r="N15">
-        <v>1.041340696611973</v>
+        <v>1.00440361690349</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034055062344711</v>
+        <v>0.9766630327560101</v>
       </c>
       <c r="D16">
-        <v>1.036108491899721</v>
+        <v>1.000074002951557</v>
       </c>
       <c r="E16">
-        <v>1.04724051613878</v>
+        <v>0.9925915812961105</v>
       </c>
       <c r="F16">
-        <v>1.053603371781657</v>
+        <v>0.9921754704380877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032262257954203</v>
+        <v>1.03605596868403</v>
       </c>
       <c r="J16">
-        <v>1.040385122047153</v>
+        <v>1.005754298572428</v>
       </c>
       <c r="K16">
-        <v>1.039545617859992</v>
+        <v>1.014405247564296</v>
       </c>
       <c r="L16">
-        <v>1.05063844158322</v>
+        <v>1.007058822541864</v>
       </c>
       <c r="M16">
-        <v>1.056979300396066</v>
+        <v>1.006650353132596</v>
       </c>
       <c r="N16">
-        <v>1.041862588254302</v>
+        <v>1.007182585038031</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034520215682433</v>
+        <v>0.9791834729345485</v>
       </c>
       <c r="D17">
-        <v>1.03645150587532</v>
+        <v>1.001901900616066</v>
       </c>
       <c r="E17">
-        <v>1.047714120357835</v>
+        <v>0.9950102616329392</v>
       </c>
       <c r="F17">
-        <v>1.054132922407228</v>
+        <v>0.9948520672535716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03234174601395</v>
+        <v>1.036657057370745</v>
       </c>
       <c r="J17">
-        <v>1.040711771856554</v>
+        <v>1.007465790680742</v>
       </c>
       <c r="K17">
-        <v>1.039815773441091</v>
+        <v>1.015876664601437</v>
       </c>
       <c r="L17">
-        <v>1.05103963868386</v>
+        <v>1.009106348351125</v>
       </c>
       <c r="M17">
-        <v>1.057436763682286</v>
+        <v>1.008950964488602</v>
       </c>
       <c r="N17">
-        <v>1.042189701943899</v>
+        <v>1.00889650766145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034791497848945</v>
+        <v>0.9806389590406297</v>
       </c>
       <c r="D18">
-        <v>1.036651517917408</v>
+        <v>1.002957989995501</v>
       </c>
       <c r="E18">
-        <v>1.047990380753475</v>
+        <v>0.9964078421970378</v>
       </c>
       <c r="F18">
-        <v>1.054441845272674</v>
+        <v>0.9963986968168442</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032387923412092</v>
+        <v>1.037002895549847</v>
       </c>
       <c r="J18">
-        <v>1.040902209810492</v>
+        <v>1.00845389869791</v>
       </c>
       <c r="K18">
-        <v>1.039973213291894</v>
+        <v>1.016725859275668</v>
       </c>
       <c r="L18">
-        <v>1.051273599135533</v>
+        <v>1.010288870387665</v>
       </c>
       <c r="M18">
-        <v>1.057703576812635</v>
+        <v>1.010279884347689</v>
       </c>
       <c r="N18">
-        <v>1.042380410341575</v>
+        <v>1.009886018905339</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034883992380289</v>
+        <v>0.9811328078131411</v>
       </c>
       <c r="D19">
-        <v>1.036719706328866</v>
+        <v>1.003316408174537</v>
       </c>
       <c r="E19">
-        <v>1.048084581028237</v>
+        <v>0.9968821872166674</v>
       </c>
       <c r="F19">
-        <v>1.054547187689461</v>
+        <v>0.9969236339712778</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032403637061712</v>
+        <v>1.03712002053796</v>
       </c>
       <c r="J19">
-        <v>1.040967128779765</v>
+        <v>1.008789123825911</v>
       </c>
       <c r="K19">
-        <v>1.040026872947418</v>
+        <v>1.017013903074192</v>
       </c>
       <c r="L19">
-        <v>1.051353365003932</v>
+        <v>1.010690122368225</v>
       </c>
       <c r="M19">
-        <v>1.057794550300234</v>
+        <v>1.010730851807527</v>
       </c>
       <c r="N19">
-        <v>1.04244542150323</v>
+        <v>1.010221720091473</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034470312657507</v>
+        <v>0.9789145801436617</v>
       </c>
       <c r="D20">
-        <v>1.036414710163289</v>
+        <v>1.001706835804846</v>
       </c>
       <c r="E20">
-        <v>1.047663305565208</v>
+        <v>0.9947521355381578</v>
       </c>
       <c r="F20">
-        <v>1.054076102008296</v>
+        <v>0.9945664142902955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032333237004964</v>
+        <v>1.036593062073724</v>
       </c>
       <c r="J20">
-        <v>1.040676734883863</v>
+        <v>1.007283224029929</v>
       </c>
       <c r="K20">
-        <v>1.039786802516184</v>
+        <v>1.015719738812969</v>
       </c>
       <c r="L20">
-        <v>1.05099659932458</v>
+        <v>1.008887894279739</v>
       </c>
       <c r="M20">
-        <v>1.057387684024959</v>
+        <v>1.008705484402146</v>
       </c>
       <c r="N20">
-        <v>1.042154615214688</v>
+        <v>1.008713681745053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033124995798867</v>
+        <v>0.9715269627544884</v>
       </c>
       <c r="D21">
-        <v>1.035422405078887</v>
+        <v>0.9963529593422078</v>
       </c>
       <c r="E21">
-        <v>1.046293870611613</v>
+        <v>0.9876686308322941</v>
       </c>
       <c r="F21">
-        <v>1.052545079168485</v>
+        <v>0.9867275754369339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03210216534683</v>
+        <v>1.034822947076361</v>
       </c>
       <c r="J21">
-        <v>1.039731559264803</v>
+        <v>1.002265324774984</v>
       </c>
       <c r="K21">
-        <v>1.039004694109469</v>
+        <v>1.011403757016971</v>
       </c>
       <c r="L21">
-        <v>1.049836115622424</v>
+        <v>1.002887452387631</v>
       </c>
       <c r="M21">
-        <v>1.056064712063612</v>
+        <v>1.001964837601873</v>
       </c>
       <c r="N21">
-        <v>1.041208097337836</v>
+        <v>1.003688656497604</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032278819219059</v>
+        <v>0.9667380970612899</v>
       </c>
       <c r="D22">
-        <v>1.034797937184593</v>
+        <v>0.992888355196719</v>
       </c>
       <c r="E22">
-        <v>1.045432973663008</v>
+        <v>0.9830853260432029</v>
       </c>
       <c r="F22">
-        <v>1.051582850981502</v>
+        <v>0.9816553958793328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031955198102879</v>
+        <v>1.033664239422834</v>
       </c>
       <c r="J22">
-        <v>1.039136456818317</v>
+        <v>0.9990109332049103</v>
       </c>
       <c r="K22">
-        <v>1.038511707732643</v>
+        <v>1.008602023981821</v>
       </c>
       <c r="L22">
-        <v>1.049106000862192</v>
+        <v>0.9989994816932801</v>
       </c>
       <c r="M22">
-        <v>1.055232734212015</v>
+        <v>0.9975992379594545</v>
       </c>
       <c r="N22">
-        <v>1.040612149777617</v>
+        <v>1.000429643318217</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032727424827148</v>
+        <v>0.9692910325993482</v>
       </c>
       <c r="D23">
-        <v>1.035129033396213</v>
+        <v>0.9947347197771959</v>
       </c>
       <c r="E23">
-        <v>1.04588934064752</v>
+        <v>0.9855278621110053</v>
       </c>
       <c r="F23">
-        <v>1.052092910587068</v>
+        <v>0.9843584923968459</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032033267869812</v>
+        <v>1.034282975359409</v>
       </c>
       <c r="J23">
-        <v>1.039452011332285</v>
+        <v>1.000745972209371</v>
       </c>
       <c r="K23">
-        <v>1.038773167354795</v>
+        <v>1.01009596080597</v>
       </c>
       <c r="L23">
-        <v>1.049493093932578</v>
+        <v>1.001071969365576</v>
       </c>
       <c r="M23">
-        <v>1.055673798552627</v>
+        <v>0.9999261479924301</v>
       </c>
       <c r="N23">
-        <v>1.040928152415189</v>
+        <v>1.002167146277076</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034492861791193</v>
+        <v>0.9790361263487758</v>
       </c>
       <c r="D24">
-        <v>1.036431336754037</v>
+        <v>1.001795008306381</v>
       </c>
       <c r="E24">
-        <v>1.047686266536193</v>
+        <v>0.9948688122719784</v>
       </c>
       <c r="F24">
-        <v>1.054101776561913</v>
+        <v>0.9946955335092099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0323370824366</v>
+        <v>1.036621993494452</v>
       </c>
       <c r="J24">
-        <v>1.040692566865987</v>
+        <v>1.007365749407182</v>
       </c>
       <c r="K24">
-        <v>1.039799893654511</v>
+        <v>1.015790674745383</v>
       </c>
       <c r="L24">
-        <v>1.051016047116144</v>
+        <v>1.0089866405315</v>
       </c>
       <c r="M24">
-        <v>1.057409861063485</v>
+        <v>1.008816446312461</v>
       </c>
       <c r="N24">
-        <v>1.042170469680043</v>
+        <v>1.008796324317807</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036540231621706</v>
+        <v>0.9897750745264595</v>
       </c>
       <c r="D25">
-        <v>1.037940149884478</v>
+        <v>1.009595167542084</v>
       </c>
       <c r="E25">
-        <v>1.04977209736391</v>
+        <v>1.005195132530801</v>
       </c>
       <c r="F25">
-        <v>1.056434725986676</v>
+        <v>1.00612382500568</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032682321595814</v>
+        <v>1.039150430338927</v>
       </c>
       <c r="J25">
-        <v>1.042128583874373</v>
+        <v>1.014651516972555</v>
       </c>
       <c r="K25">
-        <v>1.040985968440215</v>
+        <v>1.022046334816677</v>
       </c>
       <c r="L25">
-        <v>1.0527813541608</v>
+        <v>1.017713332542417</v>
       </c>
       <c r="M25">
-        <v>1.05942378764956</v>
+        <v>1.01862781450838</v>
       </c>
       <c r="N25">
-        <v>1.043608525997294</v>
+        <v>1.016092438508812</v>
       </c>
     </row>
   </sheetData>
